--- a/medicine/Enfance/Janusz_Grabiański/Janusz_Grabiański.xlsx
+++ b/medicine/Enfance/Janusz_Grabiański/Janusz_Grabiański.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Janusz_Grabia%C5%84ski</t>
+          <t>Janusz_Grabiański</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Janusz Grabiański (1929-1976) est un illustrateur polonais de livres pour enfants.
 Il a illustré au cours d'une carrière internationale, de nombreux livres pour enfants dans les années 1960 et 1970 : contes de Perrault, contes d'Andersen, contes de Grimm, les Mille et Une Nuits, les plus beaux contes d'animaux, des albums sur les chiens, les chats, les oiseaux... Il a également fait des illustrations publicitaires, notamment pour l'aviation nationale polonaise, et des cartes postales. Ses dessins à l'aquarelle et ses esquisses à la sanguine sont colorés, fluides et légers, joyeux.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Janusz_Grabia%C5%84ski</t>
+          <t>Janusz_Grabiański</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Éditions françaises d'œuvres illustrées par Janusz Grabianski.
 Contes de Grimm, (édition originale Carl Ueberreuter druck und verlag, Vienne). Édition française Flammarion, 1962
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Janusz_Grabia%C5%84ski</t>
+          <t>Janusz_Grabiański</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,9 +568,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1976 : (international) « Honor List »[1], de l' IBBY, catégorie Illustration, pour O krasnoludkach i o sierotce Marysi ( texte de Maria Konopnicka)</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1976 : (international) « Honor List », de l' IBBY, catégorie Illustration, pour O krasnoludkach i o sierotce Marysi ( texte de Maria Konopnicka)</t>
         </is>
       </c>
     </row>
